--- a/Tables/2_2_2s_non_normal_vars_sig_u_tests.xlsx
+++ b/Tables/2_2_2s_non_normal_vars_sig_u_tests.xlsx
@@ -531,7 +531,7 @@
         <v>5.337860626481584e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004621768673565199</v>
+        <v>0.0046217686735652</v>
       </c>
     </row>
     <row r="3">
@@ -577,10 +577,10 @@
         <v>1859</v>
       </c>
       <c r="J3" t="n">
-        <v>8.896571075197689e-06</v>
+        <v>8.896571075197691e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004621768673565199</v>
+        <v>0.0046217686735652</v>
       </c>
     </row>
     <row r="4">
@@ -675,10 +675,10 @@
         <v>1810</v>
       </c>
       <c r="J5" t="n">
-        <v>4.143658872128099e-05</v>
+        <v>4.1436588721281e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01062892743148125</v>
+        <v>0.01062892743148124</v>
       </c>
     </row>
     <row r="6">
@@ -724,10 +724,10 @@
         <v>1803</v>
       </c>
       <c r="J6" t="n">
-        <v>5.11497951466855e-05</v>
+        <v>5.114979514668548e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01062892743148125</v>
+        <v>0.01062892743148124</v>
       </c>
     </row>
     <row r="7">
@@ -825,7 +825,7 @@
         <v>0.0001034831001565044</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01535984872322972</v>
+        <v>0.01535984872322973</v>
       </c>
     </row>
     <row r="9">
@@ -923,7 +923,7 @@
         <v>0.0001823810103197413</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01771314965536029</v>
+        <v>0.0177131496553603</v>
       </c>
     </row>
     <row r="11">
@@ -972,7 +972,7 @@
         <v>0.0001823810103197413</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01771314965536029</v>
+        <v>0.0177131496553603</v>
       </c>
     </row>
     <row r="12">
@@ -1021,7 +1021,7 @@
         <v>0.0001875309395658934</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01771314965536029</v>
+        <v>0.0177131496553603</v>
       </c>
     </row>
     <row r="13">
@@ -1067,10 +1067,10 @@
         <v>1748</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000247113385582188</v>
+        <v>0.0002471133855821881</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02139590063499111</v>
+        <v>0.02139590063499112</v>
       </c>
     </row>
     <row r="14">
@@ -1116,7 +1116,7 @@
         <v>1745</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002681946378750728</v>
+        <v>0.0002681946378750727</v>
       </c>
       <c r="K14" t="n">
         <v>0.0214349406732462</v>
@@ -1165,10 +1165,10 @@
         <v>712.5</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003459068147777652</v>
+        <v>0.0003459068147777653</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1214,10 @@
         <v>562</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003704790968120981</v>
+        <v>0.000370479096812098</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="17">
@@ -1266,7 +1266,7 @@
         <v>0.0003907831254861373</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="18">
@@ -1312,10 +1312,10 @@
         <v>557</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0003864944874267364</v>
+        <v>0.0003864944874267365</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="19">
@@ -1364,7 +1364,7 @@
         <v>0.0004112988358927148</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02374108280514059</v>
+        <v>0.0237410828051406</v>
       </c>
     </row>
     <row r="20">
@@ -1459,10 +1459,10 @@
         <v>1697</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0009391056991171885</v>
+        <v>0.0009391056991171883</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04662119424668051</v>
+        <v>0.04662119424668053</v>
       </c>
     </row>
     <row r="22">
@@ -1511,7 +1511,7 @@
         <v>0.0009850965874893696</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04662119424668051</v>
+        <v>0.04662119424668053</v>
       </c>
     </row>
     <row r="23">
@@ -1557,10 +1557,10 @@
         <v>753</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0009871667694196066</v>
+        <v>0.0009871667694196071</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04662119424668051</v>
+        <v>0.04662119424668053</v>
       </c>
     </row>
     <row r="24">
@@ -1609,7 +1609,7 @@
         <v>0.001359375527159232</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="25">
@@ -1658,7 +1658,7 @@
         <v>0.00114535360120019</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="26">
@@ -1707,7 +1707,7 @@
         <v>0.001203085094632953</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="27">
@@ -1756,7 +1756,7 @@
         <v>0.001232948172247803</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="28">
@@ -1805,7 +1805,7 @@
         <v>0.00114535360120019</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="29">
@@ -1854,7 +1854,7 @@
         <v>0.001271463868230702</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="30">
@@ -1903,7 +1903,7 @@
         <v>0.001325686013506504</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
     <row r="31">
@@ -1952,7 +1952,7 @@
         <v>0.001189168086185648</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04707970575728141</v>
+        <v>0.04707970575728139</v>
       </c>
     </row>
   </sheetData>
